--- a/pilot-study/report/correlation/signedup-participants/SimpleCorrPairAnalysis-strong.xlsx
+++ b/pilot-study/report/correlation/signedup-participants/SimpleCorrPairAnalysis-strong.xlsx
@@ -8,18 +8,21 @@
   <sheets>
     <sheet name="strong_spearman_5" r:id="rId3" sheetId="1"/>
     <sheet name="strong_spearman_7" r:id="rId4" sheetId="2"/>
-    <sheet name="strong_spearman_16" r:id="rId5" sheetId="3"/>
-    <sheet name="strong_spearman_34" r:id="rId6" sheetId="4"/>
-    <sheet name="strong_spearman_43" r:id="rId7" sheetId="5"/>
-    <sheet name="strong_spearman_45" r:id="rId8" sheetId="6"/>
+    <sheet name="strong_spearman_9" r:id="rId5" sheetId="3"/>
+    <sheet name="strong_spearman_16" r:id="rId6" sheetId="4"/>
+    <sheet name="strong_spearman_18" r:id="rId7" sheetId="5"/>
+    <sheet name="strong_spearman_27" r:id="rId8" sheetId="6"/>
+    <sheet name="strong_spearman_34" r:id="rId9" sheetId="7"/>
+    <sheet name="strong_spearman_36" r:id="rId10" sheetId="8"/>
+    <sheet name="strong_spearman_43" r:id="rId11" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="64">
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Intrinsic Motivation in Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Intrinsic Motivation in Master using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -28,7 +31,7 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>Gains in Skills/Knowledge</t>
+    <t>Gains in Skill/Knowledge</t>
   </si>
   <si>
     <t>Intrinsic Motivation</t>
@@ -58,10 +61,10 @@
     <t>GiS/K-IntrM</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Intrinsic Motivation in Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Intrinsic Motivation in Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Intrinsic Motivation in Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Intrinsic Motivation in Master</t>
   </si>
   <si>
     <t>UserID</t>
@@ -94,6 +97,9 @@
     <t>Grupo Hades</t>
   </si>
   <si>
+    <t>Grupo Apolo</t>
+  </si>
+  <si>
     <t>GroupB</t>
   </si>
   <si>
@@ -112,16 +118,25 @@
     <t>Yee Achiever</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Intrinsic Motivation in non-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Intrinsic Motivation in non-gamified.Master using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Intrinsic Motivation in non-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Intrinsic Motivation in non-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Intrinsic Motivation in non-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Intrinsic Motivation in non-gamified.Master</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Interest/Enjoyment in non-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Intrinsic Motivation in ont-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skill/Knowledge - Intrinsic Motivation in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Intrinsic Motivation in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Interest/Enjoyment in non-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t>Interest/Enjoyment</t>
@@ -130,13 +145,37 @@
     <t>GiS/K-Int/E</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Interest/Enjoyment in non-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Interest/Enjoyment in non-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Interest/Enjoyment in non-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Interest/Enjoyment in non-gamified.Master</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Pressure/Tension in non-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Interest/Enjoyment in ont-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skill/Knowledge - Interest/Enjoyment in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Interest/Enjoyment in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Perceived Choice in ont-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>Perceived Choice</t>
+  </si>
+  <si>
+    <t>GiS/K-PrcvC</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skill/Knowledge - Perceived Choice in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Perceived Choice in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Pressure/Tension in non-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t>Pressure/Tension</t>
@@ -145,13 +184,22 @@
     <t>GiS/K-Prs/T</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Pressure/Tension in non-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Pressure/Tension in non-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Pressure/Tension in non-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Pressure/Tension in non-gamified.Master</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Effort/Importance in non-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Pressure/Tension in ont-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skill/Knowledge - Pressure/Tension in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Pressure/Tension in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Effort/Importance in non-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t>Effort/Importance</t>
@@ -160,19 +208,10 @@
     <t>GiS/K-Eff/I</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Effort/Importance in non-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Effort/Importance in non-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Effort/Importance in non-gamified.Master</t>
-  </si>
-  <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Effort/Importance in ont-gamified.Master using the method: spearman</t>
-  </si>
-  <si>
-    <t>Data source for Gains in Skills/Knowledge - Effort/Importance in ont-gamified.Master</t>
-  </si>
-  <si>
-    <t>Data full source for Gains in Skills/Knowledge - Effort/Importance in ont-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Effort/Importance in non-gamified.Master</t>
   </si>
 </sst>
 </file>
@@ -180,13 +219,1417 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="439">
+  <fonts count="658">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3039,7 +4482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="835">
+  <cellXfs count="1252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4019,6 +5462,495 @@
     <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="455" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="486" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="487" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="492" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="497" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="503" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="507" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="509" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="513" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="519" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="520" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="521" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="522" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="523" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="524" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="525" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="525" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="527" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="529" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="531" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="533" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="534" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="535" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="535" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="537" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="539" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="540" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="541" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="543" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="545" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="545" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="547" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="549" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="550" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="551" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="552" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="553" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="554" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="555" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="555" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="557" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="558" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="559" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="561" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="563" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="564" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="565" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="566" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="567" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="567" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="569" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="570" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="571" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="572" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="573" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="574" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="575" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="576" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="577" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="577" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="578" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="579" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="580" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="581" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="582" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="583" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="584" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="585" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="586" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="587" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="588" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="589" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="590" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="591" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="592" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="593" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="594" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="595" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="596" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="597" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="598" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="598" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="600" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="602" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="603" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="604" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="605" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="606" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="607" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="608" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="608" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="610" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="611" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="612" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="614" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="615" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="616" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="618" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="618" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="620" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="623" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="624" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="625" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="626" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="627" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="628" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="628" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="630" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="631" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="632" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="633" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="634" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="635" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="636" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="637" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="638" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="639" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="640" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="640" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="642" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="643" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="645" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="646" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="647" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="648" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="650" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="650" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="652" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="653" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="654" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="655" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="656" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="657" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4075,10 +6007,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="31">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>-0.8207826816681233</v>
+        <v>-0.8696565534786727</v>
       </c>
     </row>
     <row r="7">
@@ -4086,10 +6018,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="31">
-        <v>-0.8207826816681233</v>
+        <v>-0.8696565534786727</v>
       </c>
       <c r="C7" t="n" s="32">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -4120,11 +6052,11 @@
       <c r="A12" t="s" s="46">
         <v>3</v>
       </c>
-      <c r="B12" t="e" s="51">
-        <v>#DIV/0!</v>
+      <c r="B12" t="n" s="51">
+        <v>1.3421772799999999E8</v>
       </c>
       <c r="C12" t="n" s="52">
-        <v>-2.48868406735302</v>
+        <v>-3.5233213170882216</v>
       </c>
     </row>
     <row r="13">
@@ -4132,10 +6064,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="n" s="51">
-        <v>-2.48868406735302</v>
-      </c>
-      <c r="C13" t="n" s="52">
-        <v>8.21912370089156E7</v>
+        <v>-3.5233213170882216</v>
+      </c>
+      <c r="C13" t="e" s="52">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
@@ -4167,10 +6099,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="n" s="71">
-        <v>-0.0</v>
+        <v>1.8488927466117675E-32</v>
       </c>
       <c r="C18" t="n" s="72">
-        <v>0.08858700531354392</v>
+        <v>0.0243768916856908</v>
       </c>
     </row>
     <row r="19">
@@ -4178,10 +6110,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="71">
-        <v>0.08858700531354392</v>
+        <v>0.0243768916856908</v>
       </c>
       <c r="C19" t="n" s="72">
-        <v>3.971862410081728E-24</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="20">
@@ -4219,16 +6151,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="n" s="91">
-        <v>-0.987762139220087</v>
+        <v>-0.9856008638855045</v>
       </c>
       <c r="C24" t="n" s="92">
-        <v>-0.8207826816681233</v>
+        <v>-0.8696565534786727</v>
       </c>
       <c r="D24" t="n" s="93">
-        <v>0.2228875178375117</v>
+        <v>-0.1974549415680596</v>
       </c>
       <c r="E24" t="n" s="94">
-        <v>0.08858700531354392</v>
+        <v>0.0243768916856908</v>
       </c>
     </row>
     <row r="25">
@@ -4256,7 +6188,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="113">
-        <v>2.6159320835543496</v>
+        <v>1.581563383842889</v>
       </c>
       <c r="B29" t="n" s="114">
         <v>-0.43947638936464706</v>
@@ -4264,7 +6196,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n" s="113">
-        <v>1.3875250646034103</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="B30" t="n" s="114">
         <v>1.2745279552051365</v>
@@ -4272,7 +6204,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n" s="113">
-        <v>-2.40524788446102</v>
+        <v>0.7473346858743399</v>
       </c>
       <c r="B31" t="n" s="114">
         <v>0.13052634609611735</v>
@@ -4280,23 +6212,26 @@
     </row>
     <row r="32">
       <c r="A32" t="n" s="113">
-        <v>1.3875250646034103</v>
+        <v>6.276554741394257</v>
       </c>
       <c r="B32" t="n" s="114">
-        <v>-0.016003757563636895</v>
+        <v>-0.19461194636708312</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="113">
-        <v>-2.595256584071593</v>
+        <v>0.06590707889847325</v>
       </c>
       <c r="B33" t="n" s="114">
+        <v>-0.016003757563636895</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="113">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="B34" t="n" s="114">
         <v>1.3837694218399965</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -4305,145 +6240,173 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="118">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="118">
         <v>14</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s" s="132">
+    <row r="38">
+      <c r="A38" t="s" s="132">
         <v>15</v>
       </c>
-      <c r="B37" t="s" s="132">
+      <c r="B38" t="s" s="132">
         <v>16</v>
       </c>
-      <c r="C37" t="s" s="132">
+      <c r="C38" t="s" s="132">
         <v>17</v>
       </c>
-      <c r="D37" t="s" s="132">
+      <c r="D38" t="s" s="132">
         <v>18</v>
       </c>
-      <c r="E37" t="s" s="132">
+      <c r="E38" t="s" s="132">
         <v>19</v>
       </c>
-      <c r="F37" t="s" s="132">
+      <c r="F38" t="s" s="132">
         <v>3</v>
       </c>
-      <c r="G37" t="s" s="132">
+      <c r="G38" t="s" s="132">
         <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n" s="133">
-        <v>10116.0</v>
-      </c>
-      <c r="B38" t="s" s="134">
-        <v>20</v>
-      </c>
-      <c r="C38" t="s" s="135">
-        <v>22</v>
-      </c>
-      <c r="D38" t="s" s="136">
-        <v>27</v>
-      </c>
-      <c r="E38" t="s" s="137">
-        <v>28</v>
-      </c>
-      <c r="F38" t="n" s="138">
-        <v>2.6159320835543496</v>
-      </c>
-      <c r="G38" t="n" s="139">
-        <v>-0.43947638936464706</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="133">
-        <v>10120.0</v>
+        <v>10116.0</v>
       </c>
       <c r="B39" t="s" s="134">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s" s="135">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s" s="136">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E39" t="s" s="137">
         <v>29</v>
       </c>
       <c r="F39" t="n" s="138">
-        <v>1.3875250646034103</v>
+        <v>1.581563383842889</v>
       </c>
       <c r="G39" t="n" s="139">
-        <v>1.2745279552051365</v>
+        <v>-0.43947638936464706</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="133">
-        <v>10121.0</v>
+        <v>10120.0</v>
       </c>
       <c r="B40" t="s" s="134">
         <v>21</v>
       </c>
       <c r="C40" t="s" s="135">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s" s="136">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E40" t="s" s="137">
         <v>30</v>
       </c>
       <c r="F40" t="n" s="138">
-        <v>-2.40524788446102</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="G40" t="n" s="139">
-        <v>0.13052634609611735</v>
+        <v>1.2745279552051365</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="133">
-        <v>10145.0</v>
+        <v>10121.0</v>
       </c>
       <c r="B41" t="s" s="134">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s" s="135">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s" s="136">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E41" t="s" s="137">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F41" t="n" s="138">
-        <v>1.3875250646034103</v>
+        <v>0.7473346858743399</v>
       </c>
       <c r="G41" t="n" s="139">
-        <v>-0.016003757563636895</v>
+        <v>0.13052634609611735</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="133">
-        <v>10152.0</v>
+        <v>10141.0</v>
       </c>
       <c r="B42" t="s" s="134">
         <v>21</v>
       </c>
       <c r="C42" t="s" s="135">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s" s="136">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E42" t="s" s="137">
         <v>30</v>
       </c>
       <c r="F42" t="n" s="138">
-        <v>-2.595256584071593</v>
+        <v>6.276554741394257</v>
       </c>
       <c r="G42" t="n" s="139">
+        <v>-0.19461194636708312</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="133">
+        <v>10145.0</v>
+      </c>
+      <c r="B43" t="s" s="134">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s" s="135">
+        <v>26</v>
+      </c>
+      <c r="D43" t="s" s="136">
+        <v>28</v>
+      </c>
+      <c r="E43" t="s" s="137">
+        <v>29</v>
+      </c>
+      <c r="F43" t="n" s="138">
+        <v>0.06590707889847325</v>
+      </c>
+      <c r="G43" t="n" s="139">
+        <v>-0.016003757563636895</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="133">
+        <v>10152.0</v>
+      </c>
+      <c r="B44" t="s" s="134">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s" s="135">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s" s="136">
+        <v>28</v>
+      </c>
+      <c r="E44" t="s" s="137">
+        <v>31</v>
+      </c>
+      <c r="F44" t="n" s="138">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G44" t="n" s="139">
         <v>1.3837694218399965</v>
       </c>
     </row>
@@ -4472,7 +6435,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="141">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -4658,7 +6621,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="237">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -4671,7 +6634,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="252">
-        <v>2.6159320835543496</v>
+        <v>1.581563383842889</v>
       </c>
       <c r="B29" t="n" s="253">
         <v>-0.43947638936464706</v>
@@ -4679,7 +6642,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n" s="252">
-        <v>1.3875250646034103</v>
+        <v>0.06590707889847325</v>
       </c>
       <c r="B30" t="n" s="253">
         <v>-0.016003757563636895</v>
@@ -4697,7 +6660,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="257">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -4734,13 +6697,13 @@
         <v>22</v>
       </c>
       <c r="D35" t="s" s="275">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s" s="276">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F35" t="n" s="277">
-        <v>2.6159320835543496</v>
+        <v>1.581563383842889</v>
       </c>
       <c r="G35" t="n" s="278">
         <v>-0.43947638936464706</v>
@@ -4754,16 +6717,16 @@
         <v>20</v>
       </c>
       <c r="C36" t="s" s="274">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s" s="275">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s" s="276">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F36" t="n" s="277">
-        <v>1.3875250646034103</v>
+        <v>0.06590707889847325</v>
       </c>
       <c r="G36" t="n" s="278">
         <v>-0.016003757563636895</v>
@@ -4794,7 +6757,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="280">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -4818,7 +6781,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="308">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -4826,21 +6789,21 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="309">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n" s="310">
-        <v>0.9999999999999998</v>
+        <v>-0.9486832980505139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="304">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n" s="309">
-        <v>0.9999999999999998</v>
+        <v>-0.9486832980505139</v>
       </c>
       <c r="C7" t="n" s="310">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -4864,29 +6827,29 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="328">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="324">
         <v>3</v>
       </c>
-      <c r="B12" t="n" s="329">
-        <v>0.0</v>
+      <c r="B12" t="e" s="329">
+        <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="330">
-        <v>0.0</v>
+        <v>-4.242640687119289</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="324">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n" s="329">
-        <v>0.0</v>
-      </c>
-      <c r="C13" t="n" s="330">
-        <v>0.0</v>
+        <v>-4.242640687119289</v>
+      </c>
+      <c r="C13" t="e" s="330">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
@@ -4910,22 +6873,30 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="348">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="344">
         <v>3</v>
       </c>
-      <c r="B18" s="349"/>
-      <c r="C18" s="350"/>
+      <c r="B18" t="n" s="349">
+        <v>-0.0</v>
+      </c>
+      <c r="C18" t="n" s="350">
+        <v>0.0513167019494861</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="344">
-        <v>35</v>
-      </c>
-      <c r="B19" s="349"/>
-      <c r="C19" s="350"/>
+        <v>4</v>
+      </c>
+      <c r="B19" t="n" s="349">
+        <v>0.0513167019494861</v>
+      </c>
+      <c r="C19" t="n" s="350">
+        <v>-0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -4959,14 +6930,20 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="364">
-        <v>36</v>
-      </c>
-      <c r="B24" s="369"/>
+        <v>12</v>
+      </c>
+      <c r="B24" t="n" s="369">
+        <v>-0.9989554781982825</v>
+      </c>
       <c r="C24" t="n" s="370">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="D24" s="371"/>
-      <c r="E24" s="372"/>
+        <v>-0.9486832980505139</v>
+      </c>
+      <c r="D24" t="n" s="371">
+        <v>0.14058029887361093</v>
+      </c>
+      <c r="E24" t="n" s="372">
+        <v>0.0513167019494861</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -4980,7 +6957,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="376">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
@@ -4988,107 +6965,169 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="390">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="391">
-        <v>2.6159320835543496</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="B29" t="n" s="392">
-        <v>-0.11357294579123278</v>
+        <v>1.2745279552051365</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="391">
-        <v>1.3875250646034103</v>
+        <v>0.7473346858743399</v>
       </c>
       <c r="B30" t="n" s="392">
-        <v>-0.6310088518604511</v>
+        <v>0.13052634609611735</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>1</v>
+      <c r="A31" t="n" s="391">
+        <v>6.276554741394257</v>
+      </c>
+      <c r="B31" t="n" s="392">
+        <v>-0.19461194636708312</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>1</v>
+      <c r="A32" t="n" s="391">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="B32" t="n" s="392">
+        <v>1.3837694218399965</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="396">
-        <v>38</v>
+      <c r="A33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="410">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="396">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="410">
         <v>15</v>
       </c>
-      <c r="B34" t="s" s="410">
+      <c r="B36" t="s" s="410">
         <v>16</v>
       </c>
-      <c r="C34" t="s" s="410">
+      <c r="C36" t="s" s="410">
         <v>17</v>
       </c>
-      <c r="D34" t="s" s="410">
+      <c r="D36" t="s" s="410">
         <v>18</v>
       </c>
-      <c r="E34" t="s" s="410">
+      <c r="E36" t="s" s="410">
         <v>19</v>
       </c>
-      <c r="F34" t="s" s="410">
+      <c r="F36" t="s" s="410">
         <v>3</v>
       </c>
-      <c r="G34" t="s" s="410">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n" s="411">
-        <v>10116.0</v>
-      </c>
-      <c r="B35" t="s" s="412">
-        <v>20</v>
-      </c>
-      <c r="C35" t="s" s="413">
-        <v>22</v>
-      </c>
-      <c r="D35" t="s" s="414">
+      <c r="G36" t="s" s="410">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="411">
+        <v>10120.0</v>
+      </c>
+      <c r="B37" t="s" s="412">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s" s="413">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s" s="414">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s" s="415">
+        <v>30</v>
+      </c>
+      <c r="F37" t="n" s="416">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G37" t="n" s="417">
+        <v>1.2745279552051365</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="411">
+        <v>10121.0</v>
+      </c>
+      <c r="B38" t="s" s="412">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s" s="413">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s" s="414">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s" s="415">
+        <v>31</v>
+      </c>
+      <c r="F38" t="n" s="416">
+        <v>0.7473346858743399</v>
+      </c>
+      <c r="G38" t="n" s="417">
+        <v>0.13052634609611735</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="411">
+        <v>10141.0</v>
+      </c>
+      <c r="B39" t="s" s="412">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s" s="413">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s" s="414">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s" s="415">
+        <v>30</v>
+      </c>
+      <c r="F39" t="n" s="416">
+        <v>6.276554741394257</v>
+      </c>
+      <c r="G39" t="n" s="417">
+        <v>-0.19461194636708312</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="411">
+        <v>10152.0</v>
+      </c>
+      <c r="B40" t="s" s="412">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s" s="413">
         <v>27</v>
       </c>
-      <c r="E35" t="s" s="415">
+      <c r="D40" t="s" s="414">
         <v>28</v>
       </c>
-      <c r="F35" t="n" s="416">
-        <v>2.6159320835543496</v>
-      </c>
-      <c r="G35" t="n" s="417">
-        <v>-0.11357294579123278</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n" s="411">
-        <v>10145.0</v>
-      </c>
-      <c r="B36" t="s" s="412">
-        <v>20</v>
-      </c>
-      <c r="C36" t="s" s="413">
-        <v>25</v>
-      </c>
-      <c r="D36" t="s" s="414">
-        <v>27</v>
-      </c>
-      <c r="E36" t="s" s="415">
-        <v>28</v>
-      </c>
-      <c r="F36" t="n" s="416">
-        <v>1.3875250646034103</v>
-      </c>
-      <c r="G36" t="n" s="417">
-        <v>-0.6310088518604511</v>
+      <c r="E40" t="s" s="415">
+        <v>31</v>
+      </c>
+      <c r="F40" t="n" s="416">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G40" t="n" s="417">
+        <v>1.3837694218399965</v>
       </c>
     </row>
   </sheetData>
@@ -5116,7 +7155,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="419">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -5140,7 +7179,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="447">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -5151,15 +7190,15 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="C6" t="n" s="449">
-        <v>-0.9999999999999998</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="443">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="n" s="448">
-        <v>-0.9999999999999998</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="C7" t="n" s="449">
         <v>0.9999999999999998</v>
@@ -5186,7 +7225,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="467">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
@@ -5197,15 +7236,15 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="469">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="463">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" t="n" s="468">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="C13" t="n" s="469">
         <v>0.0</v>
@@ -5232,7 +7271,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="487">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
@@ -5244,7 +7283,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="483">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="488"/>
       <c r="C19" s="489"/>
@@ -5281,11 +7320,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="503">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="508"/>
       <c r="C24" t="n" s="509">
-        <v>-0.9999999999999998</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D24" s="510"/>
       <c r="E24" s="511"/>
@@ -5302,7 +7341,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="515">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
@@ -5310,23 +7349,23 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="529">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="530">
-        <v>2.6159320835543496</v>
+        <v>1.581563383842889</v>
       </c>
       <c r="B29" t="n" s="531">
-        <v>0.2070747279978936</v>
+        <v>-0.11357294579123278</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="530">
-        <v>1.3875250646034103</v>
+        <v>0.06590707889847325</v>
       </c>
       <c r="B30" t="n" s="531">
-        <v>0.49281785313896265</v>
+        <v>-0.6310088518604511</v>
       </c>
     </row>
     <row r="31">
@@ -5341,7 +7380,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="535">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
@@ -5364,7 +7403,7 @@
         <v>3</v>
       </c>
       <c r="G34" t="s" s="549">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
@@ -5378,16 +7417,16 @@
         <v>22</v>
       </c>
       <c r="D35" t="s" s="553">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s" s="554">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F35" t="n" s="555">
-        <v>2.6159320835543496</v>
+        <v>1.581563383842889</v>
       </c>
       <c r="G35" t="n" s="556">
-        <v>0.2070747279978936</v>
+        <v>-0.11357294579123278</v>
       </c>
     </row>
     <row r="36">
@@ -5398,19 +7437,19 @@
         <v>20</v>
       </c>
       <c r="C36" t="s" s="552">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s" s="553">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s" s="554">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F36" t="n" s="555">
-        <v>1.3875250646034103</v>
+        <v>0.06590707889847325</v>
       </c>
       <c r="G36" t="n" s="556">
-        <v>0.49281785313896265</v>
+        <v>-0.6310088518604511</v>
       </c>
     </row>
   </sheetData>
@@ -5438,7 +7477,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="558">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -5462,7 +7501,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="586">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -5470,21 +7509,21 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="587">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n" s="588">
-        <v>-0.9999999999999998</v>
+        <v>-0.9486832980505139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="582">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B7" t="n" s="587">
-        <v>-0.9999999999999998</v>
+        <v>-0.9486832980505139</v>
       </c>
       <c r="C7" t="n" s="588">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -5508,29 +7547,29 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="606">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="602">
         <v>3</v>
       </c>
-      <c r="B12" t="n" s="607">
-        <v>0.0</v>
+      <c r="B12" t="e" s="607">
+        <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="608">
-        <v>-0.0</v>
+        <v>-4.242640687119289</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="602">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B13" t="n" s="607">
-        <v>-0.0</v>
-      </c>
-      <c r="C13" t="n" s="608">
-        <v>0.0</v>
+        <v>-4.242640687119289</v>
+      </c>
+      <c r="C13" t="e" s="608">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
@@ -5554,22 +7593,30 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="626">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="622">
         <v>3</v>
       </c>
-      <c r="B18" s="627"/>
-      <c r="C18" s="628"/>
+      <c r="B18" t="n" s="627">
+        <v>-0.0</v>
+      </c>
+      <c r="C18" t="n" s="628">
+        <v>0.0513167019494861</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="622">
-        <v>45</v>
-      </c>
-      <c r="B19" s="627"/>
-      <c r="C19" s="628"/>
+        <v>39</v>
+      </c>
+      <c r="B19" t="n" s="627">
+        <v>0.0513167019494861</v>
+      </c>
+      <c r="C19" t="n" s="628">
+        <v>-0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -5603,14 +7650,20 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="642">
-        <v>46</v>
-      </c>
-      <c r="B24" s="647"/>
+        <v>40</v>
+      </c>
+      <c r="B24" t="n" s="647">
+        <v>-0.9989554781982825</v>
+      </c>
       <c r="C24" t="n" s="648">
-        <v>-0.9999999999999998</v>
-      </c>
-      <c r="D24" s="649"/>
-      <c r="E24" s="650"/>
+        <v>-0.9486832980505139</v>
+      </c>
+      <c r="D24" t="n" s="649">
+        <v>0.14058029887361093</v>
+      </c>
+      <c r="E24" t="n" s="650">
+        <v>0.0513167019494861</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -5624,7 +7677,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="654">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
@@ -5632,107 +7685,169 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="668">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="669">
-        <v>2.6159320835543496</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="B29" t="n" s="670">
-        <v>-0.5947940389283171</v>
+        <v>1.9055652511372148</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="669">
-        <v>1.3875250646034103</v>
+        <v>0.7473346858743399</v>
       </c>
       <c r="B30" t="n" s="670">
-        <v>1.293694677289596</v>
+        <v>0.3991938673511699</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>1</v>
+      <c r="A31" t="n" s="669">
+        <v>6.276554741394257</v>
+      </c>
+      <c r="B31" t="n" s="670">
+        <v>0.0020687155690903847</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>1</v>
+      <c r="A32" t="n" s="669">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="B32" t="n" s="670">
+        <v>3.1382402906974827</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="674">
-        <v>48</v>
+      <c r="A33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="688">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="674">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="688">
         <v>15</v>
       </c>
-      <c r="B34" t="s" s="688">
+      <c r="B36" t="s" s="688">
         <v>16</v>
       </c>
-      <c r="C34" t="s" s="688">
+      <c r="C36" t="s" s="688">
         <v>17</v>
       </c>
-      <c r="D34" t="s" s="688">
+      <c r="D36" t="s" s="688">
         <v>18</v>
       </c>
-      <c r="E34" t="s" s="688">
+      <c r="E36" t="s" s="688">
         <v>19</v>
       </c>
-      <c r="F34" t="s" s="688">
+      <c r="F36" t="s" s="688">
         <v>3</v>
       </c>
-      <c r="G34" t="s" s="688">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n" s="689">
-        <v>10116.0</v>
-      </c>
-      <c r="B35" t="s" s="690">
-        <v>20</v>
-      </c>
-      <c r="C35" t="s" s="691">
-        <v>22</v>
-      </c>
-      <c r="D35" t="s" s="692">
+      <c r="G36" t="s" s="688">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="689">
+        <v>10120.0</v>
+      </c>
+      <c r="B37" t="s" s="690">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s" s="691">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s" s="692">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s" s="693">
+        <v>30</v>
+      </c>
+      <c r="F37" t="n" s="694">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G37" t="n" s="695">
+        <v>1.9055652511372148</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="689">
+        <v>10121.0</v>
+      </c>
+      <c r="B38" t="s" s="690">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s" s="691">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s" s="692">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s" s="693">
+        <v>31</v>
+      </c>
+      <c r="F38" t="n" s="694">
+        <v>0.7473346858743399</v>
+      </c>
+      <c r="G38" t="n" s="695">
+        <v>0.3991938673511699</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="689">
+        <v>10141.0</v>
+      </c>
+      <c r="B39" t="s" s="690">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s" s="691">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s" s="692">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s" s="693">
+        <v>30</v>
+      </c>
+      <c r="F39" t="n" s="694">
+        <v>6.276554741394257</v>
+      </c>
+      <c r="G39" t="n" s="695">
+        <v>0.0020687155690903847</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="689">
+        <v>10152.0</v>
+      </c>
+      <c r="B40" t="s" s="690">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s" s="691">
         <v>27</v>
       </c>
-      <c r="E35" t="s" s="693">
+      <c r="D40" t="s" s="692">
         <v>28</v>
       </c>
-      <c r="F35" t="n" s="694">
-        <v>2.6159320835543496</v>
-      </c>
-      <c r="G35" t="n" s="695">
-        <v>-0.5947940389283171</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n" s="689">
-        <v>10145.0</v>
-      </c>
-      <c r="B36" t="s" s="690">
-        <v>20</v>
-      </c>
-      <c r="C36" t="s" s="691">
-        <v>25</v>
-      </c>
-      <c r="D36" t="s" s="692">
-        <v>27</v>
-      </c>
-      <c r="E36" t="s" s="693">
-        <v>28</v>
-      </c>
-      <c r="F36" t="n" s="694">
-        <v>1.3875250646034103</v>
-      </c>
-      <c r="G36" t="n" s="695">
-        <v>1.293694677289596</v>
+      <c r="E40" t="s" s="693">
+        <v>31</v>
+      </c>
+      <c r="F40" t="n" s="694">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G40" t="n" s="695">
+        <v>3.1382402906974827</v>
       </c>
     </row>
   </sheetData>
@@ -5760,7 +7875,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="697">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5784,7 +7899,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="725">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -5795,15 +7910,15 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="727">
-        <v>1.0</v>
+        <v>-0.9486832980505139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="721">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" t="n" s="726">
-        <v>1.0</v>
+        <v>-0.9486832980505139</v>
       </c>
       <c r="C7" t="n" s="727">
         <v>1.0</v>
@@ -5830,7 +7945,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="745">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -5840,16 +7955,16 @@
       <c r="B12" t="e" s="746">
         <v>#DIV/0!</v>
       </c>
-      <c r="C12" t="e" s="747">
-        <v>#DIV/0!</v>
+      <c r="C12" t="n" s="747">
+        <v>-4.242640687119289</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>45</v>
-      </c>
-      <c r="B13" t="e" s="746">
-        <v>#DIV/0!</v>
+        <v>47</v>
+      </c>
+      <c r="B13" t="n" s="746">
+        <v>-4.242640687119289</v>
       </c>
       <c r="C13" t="e" s="747">
         <v>#DIV/0!</v>
@@ -5876,7 +7991,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="765">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -5887,15 +8002,15 @@
         <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="767">
-        <v>-0.0</v>
+        <v>0.0513167019494861</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="761">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B19" t="n" s="766">
-        <v>-0.0</v>
+        <v>0.0513167019494861</v>
       </c>
       <c r="C19" t="n" s="767">
         <v>-0.0</v>
@@ -5933,15 +8048,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="781">
-        <v>46</v>
-      </c>
-      <c r="B24" s="786"/>
+        <v>48</v>
+      </c>
+      <c r="B24" t="n" s="786">
+        <v>-0.9989554781982825</v>
+      </c>
       <c r="C24" t="n" s="787">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="788"/>
+        <v>-0.9486832980505139</v>
+      </c>
+      <c r="D24" t="n" s="788">
+        <v>0.14058029887361093</v>
+      </c>
       <c r="E24" t="n" s="789">
-        <v>-0.0</v>
+        <v>0.0513167019494861</v>
       </c>
     </row>
     <row r="25">
@@ -5956,7 +8075,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="793">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
@@ -5964,31 +8083,412 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="807">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="808">
-        <v>1.3875250646034103</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="B29" t="n" s="809">
-        <v>0.43187671077339407</v>
+        <v>1.3724895791459666</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="808">
-        <v>-2.40524788446102</v>
+        <v>0.7473346858743399</v>
       </c>
       <c r="B30" t="n" s="809">
-        <v>-0.11852834836594606</v>
+        <v>0.5868961120264211</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="808">
-        <v>-2.595256584071593</v>
+        <v>6.276554741394257</v>
       </c>
       <c r="B31" t="n" s="809">
-        <v>-0.5947940389283171</v>
+        <v>-0.41039697568847644</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="808">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="B32" t="n" s="809">
+        <v>0.7141732488095422</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="813">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="827">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s" s="827">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s" s="827">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s" s="827">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s" s="827">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s" s="827">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s" s="827">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="828">
+        <v>10120.0</v>
+      </c>
+      <c r="B37" t="s" s="829">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s" s="830">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s" s="831">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s" s="832">
+        <v>30</v>
+      </c>
+      <c r="F37" t="n" s="833">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G37" t="n" s="834">
+        <v>1.3724895791459666</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="828">
+        <v>10121.0</v>
+      </c>
+      <c r="B38" t="s" s="829">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s" s="830">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s" s="831">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s" s="832">
+        <v>31</v>
+      </c>
+      <c r="F38" t="n" s="833">
+        <v>0.7473346858743399</v>
+      </c>
+      <c r="G38" t="n" s="834">
+        <v>0.5868961120264211</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="828">
+        <v>10141.0</v>
+      </c>
+      <c r="B39" t="s" s="829">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s" s="830">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s" s="831">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s" s="832">
+        <v>30</v>
+      </c>
+      <c r="F39" t="n" s="833">
+        <v>6.276554741394257</v>
+      </c>
+      <c r="G39" t="n" s="834">
+        <v>-0.41039697568847644</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="828">
+        <v>10152.0</v>
+      </c>
+      <c r="B40" t="s" s="829">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s" s="830">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s" s="831">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s" s="832">
+        <v>31</v>
+      </c>
+      <c r="F40" t="n" s="833">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G40" t="n" s="834">
+        <v>0.7141732488095422</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="836">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="850">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="864">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="864">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="860">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="865">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="C6" t="n" s="866">
+        <v>-0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="860">
+        <v>52</v>
+      </c>
+      <c r="B7" t="n" s="865">
+        <v>-0.9999999999999998</v>
+      </c>
+      <c r="C7" t="n" s="866">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="870">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="884">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="884">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="880">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n" s="885">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n" s="886">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="880">
+        <v>52</v>
+      </c>
+      <c r="B13" t="n" s="885">
+        <v>-0.0</v>
+      </c>
+      <c r="C13" t="n" s="886">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="890">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="904">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="904">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="900">
+        <v>3</v>
+      </c>
+      <c r="B18" s="905"/>
+      <c r="C18" s="906"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="900">
+        <v>52</v>
+      </c>
+      <c r="B19" s="905"/>
+      <c r="C19" s="906"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="910">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="924">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="924">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="924">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="924">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="920">
+        <v>53</v>
+      </c>
+      <c r="B24" s="925"/>
+      <c r="C24" t="n" s="926">
+        <v>-0.9999999999999998</v>
+      </c>
+      <c r="D24" s="927"/>
+      <c r="E24" s="928"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="932">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="946">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="946">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="947">
+        <v>1.581563383842889</v>
+      </c>
+      <c r="B29" t="n" s="948">
+        <v>0.2070747279978936</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="947">
+        <v>0.06590707889847325</v>
+      </c>
+      <c r="B30" t="n" s="948">
+        <v>0.49281785313896265</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -5997,105 +8497,797 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="s" s="952">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="966">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s" s="966">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s" s="966">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s" s="966">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s" s="966">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s" s="966">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s" s="966">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="967">
+        <v>10116.0</v>
+      </c>
+      <c r="B35" t="s" s="968">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s" s="969">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s" s="970">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s" s="971">
+        <v>29</v>
+      </c>
+      <c r="F35" t="n" s="972">
+        <v>1.581563383842889</v>
+      </c>
+      <c r="G35" t="n" s="973">
+        <v>0.2070747279978936</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="967">
+        <v>10145.0</v>
+      </c>
+      <c r="B36" t="s" s="968">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s" s="969">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s" s="970">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s" s="971">
+        <v>29</v>
+      </c>
+      <c r="F36" t="n" s="972">
+        <v>0.06590707889847325</v>
+      </c>
+      <c r="G36" t="n" s="973">
+        <v>0.49281785313896265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="975">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="989">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="1003">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="1003">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="999">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="1004">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="1005">
+        <v>0.737864787372622</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="999">
+        <v>52</v>
+      </c>
+      <c r="B7" t="n" s="1004">
+        <v>0.737864787372622</v>
+      </c>
+      <c r="C7" t="n" s="1005">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1009">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="1023">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="1023">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1019">
+        <v>3</v>
+      </c>
+      <c r="B12" t="e" s="1024">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="1025">
+        <v>1.5460413650478524</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1019">
+        <v>52</v>
+      </c>
+      <c r="B13" t="n" s="1024">
+        <v>1.5460413650478524</v>
+      </c>
+      <c r="C13" t="e" s="1025">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="1029">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="1043">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="1043">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="1039">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="1044">
+        <v>-0.0</v>
+      </c>
+      <c r="C18" t="n" s="1045">
+        <v>0.262135212627378</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="1039">
+        <v>52</v>
+      </c>
+      <c r="B19" t="n" s="1044">
+        <v>0.262135212627378</v>
+      </c>
+      <c r="C19" t="n" s="1045">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="1049">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="1063">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="1063">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="1063">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="1063">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1059">
+        <v>53</v>
+      </c>
+      <c r="B24" t="n" s="1064">
+        <v>-0.7674886455346195</v>
+      </c>
+      <c r="C24" t="n" s="1065">
+        <v>0.737864787372622</v>
+      </c>
+      <c r="D24" t="n" s="1066">
+        <v>0.9940318684341379</v>
+      </c>
+      <c r="E24" t="n" s="1067">
+        <v>0.262135212627378</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="1071">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="1085">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="1085">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="1086">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="B29" t="n" s="1087">
+        <v>-0.9288875181075325</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="1086">
+        <v>0.7473346858743399</v>
+      </c>
+      <c r="B30" t="n" s="1087">
+        <v>0.3454562466271757</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="1086">
+        <v>6.276554741394257</v>
+      </c>
+      <c r="B31" t="n" s="1087">
+        <v>-0.05982173039386193</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="1086">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="B32" t="n" s="1087">
+        <v>-0.1950989718859835</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="813">
-        <v>51</v>
+      <c r="A34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="827">
+      <c r="A35" t="s" s="1091">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="1105">
         <v>15</v>
       </c>
-      <c r="B35" t="s" s="827">
+      <c r="B36" t="s" s="1105">
         <v>16</v>
       </c>
-      <c r="C35" t="s" s="827">
+      <c r="C36" t="s" s="1105">
         <v>17</v>
       </c>
-      <c r="D35" t="s" s="827">
+      <c r="D36" t="s" s="1105">
         <v>18</v>
       </c>
-      <c r="E35" t="s" s="827">
+      <c r="E36" t="s" s="1105">
         <v>19</v>
       </c>
-      <c r="F35" t="s" s="827">
+      <c r="F36" t="s" s="1105">
         <v>3</v>
       </c>
-      <c r="G35" t="s" s="827">
-        <v>45</v>
+      <c r="G36" t="s" s="1105">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="1106">
+        <v>10120.0</v>
+      </c>
+      <c r="B37" t="s" s="1107">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s" s="1108">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s" s="1109">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s" s="1110">
+        <v>30</v>
+      </c>
+      <c r="F37" t="n" s="1111">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G37" t="n" s="1112">
+        <v>-0.9288875181075325</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="1106">
+        <v>10121.0</v>
+      </c>
+      <c r="B38" t="s" s="1107">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s" s="1108">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s" s="1109">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s" s="1110">
+        <v>31</v>
+      </c>
+      <c r="F38" t="n" s="1111">
+        <v>0.7473346858743399</v>
+      </c>
+      <c r="G38" t="n" s="1112">
+        <v>0.3454562466271757</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="1106">
+        <v>10141.0</v>
+      </c>
+      <c r="B39" t="s" s="1107">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s" s="1108">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s" s="1109">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s" s="1110">
+        <v>30</v>
+      </c>
+      <c r="F39" t="n" s="1111">
+        <v>6.276554741394257</v>
+      </c>
+      <c r="G39" t="n" s="1112">
+        <v>-0.05982173039386193</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="1106">
+        <v>10152.0</v>
+      </c>
+      <c r="B40" t="s" s="1107">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s" s="1108">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s" s="1109">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s" s="1110">
+        <v>31</v>
+      </c>
+      <c r="F40" t="n" s="1111">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G40" t="n" s="1112">
+        <v>-0.1950989718859835</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1114">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="1142">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="1142">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1138">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="1143">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="C6" t="n" s="1144">
+        <v>-0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1138">
+        <v>60</v>
+      </c>
+      <c r="B7" t="n" s="1143">
+        <v>-0.9999999999999998</v>
+      </c>
+      <c r="C7" t="n" s="1144">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1148">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="1162">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="1162">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1158">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n" s="1163">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n" s="1164">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1158">
+        <v>60</v>
+      </c>
+      <c r="B13" t="n" s="1163">
+        <v>-0.0</v>
+      </c>
+      <c r="C13" t="n" s="1164">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="1168">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="1182">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="1182">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="1178">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1183"/>
+      <c r="C18" s="1184"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="1178">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1183"/>
+      <c r="C19" s="1184"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="1188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="1202">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="1202">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="1202">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="1202">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1198">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1203"/>
+      <c r="C24" t="n" s="1204">
+        <v>-0.9999999999999998</v>
+      </c>
+      <c r="D24" s="1205"/>
+      <c r="E24" s="1206"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="1210">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="1224">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="1224">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="1225">
+        <v>1.581563383842889</v>
+      </c>
+      <c r="B29" t="n" s="1226">
+        <v>-0.5947940389283171</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="1225">
+        <v>0.06590707889847325</v>
+      </c>
+      <c r="B30" t="n" s="1226">
+        <v>1.293694677289596</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="1230">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="1244">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s" s="1244">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s" s="1244">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s" s="1244">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s" s="1244">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s" s="1244">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s" s="1244">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="1245">
+        <v>10116.0</v>
+      </c>
+      <c r="B35" t="s" s="1246">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s" s="1247">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s" s="1248">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s" s="1249">
+        <v>29</v>
+      </c>
+      <c r="F35" t="n" s="1250">
+        <v>1.581563383842889</v>
+      </c>
+      <c r="G35" t="n" s="1251">
+        <v>-0.5947940389283171</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n" s="828">
-        <v>10120.0</v>
-      </c>
-      <c r="B36" t="s" s="829">
-        <v>21</v>
-      </c>
-      <c r="C36" t="s" s="830">
-        <v>23</v>
-      </c>
-      <c r="D36" t="s" s="831">
-        <v>27</v>
-      </c>
-      <c r="E36" t="s" s="832">
+      <c r="A36" t="n" s="1245">
+        <v>10145.0</v>
+      </c>
+      <c r="B36" t="s" s="1246">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s" s="1247">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s" s="1248">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s" s="1249">
         <v>29</v>
       </c>
-      <c r="F36" t="n" s="833">
-        <v>1.3875250646034103</v>
-      </c>
-      <c r="G36" t="n" s="834">
-        <v>0.43187671077339407</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n" s="828">
-        <v>10121.0</v>
-      </c>
-      <c r="B37" t="s" s="829">
-        <v>21</v>
-      </c>
-      <c r="C37" t="s" s="830">
-        <v>24</v>
-      </c>
-      <c r="D37" t="s" s="831">
-        <v>27</v>
-      </c>
-      <c r="E37" t="s" s="832">
-        <v>30</v>
-      </c>
-      <c r="F37" t="n" s="833">
-        <v>-2.40524788446102</v>
-      </c>
-      <c r="G37" t="n" s="834">
-        <v>-0.11852834836594606</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n" s="828">
-        <v>10152.0</v>
-      </c>
-      <c r="B38" t="s" s="829">
-        <v>21</v>
-      </c>
-      <c r="C38" t="s" s="830">
-        <v>26</v>
-      </c>
-      <c r="D38" t="s" s="831">
-        <v>27</v>
-      </c>
-      <c r="E38" t="s" s="832">
-        <v>30</v>
-      </c>
-      <c r="F38" t="n" s="833">
-        <v>-2.595256584071593</v>
-      </c>
-      <c r="G38" t="n" s="834">
-        <v>-0.5947940389283171</v>
+      <c r="F36" t="n" s="1250">
+        <v>0.06590707889847325</v>
+      </c>
+      <c r="G36" t="n" s="1251">
+        <v>1.293694677289596</v>
       </c>
     </row>
   </sheetData>
